--- a/Template.xlsx
+++ b/Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alisl\OneDrive\Bureau\Info\HCM\Extraction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alisl\Downloads\Camelot pour Streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0D1015-EFE5-4E5D-9E18-D1FF2B1F86AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDFE1EB-6C03-4A31-BE07-80E768E5F510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E1CECB2A-6317-4D89-9FEF-A3FD3C9C7282}"/>
   </bookViews>
@@ -471,7 +471,7 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
